--- a/Chapter 1/Chapter1.xlsx
+++ b/Chapter 1/Chapter1.xlsx
@@ -2752,7 +2752,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="14">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7" ht="14.35" customHeight="1">
